--- a/Enuda Learn Curriculum Standard - Math, Data Science, Computer Science, Statistics.xlsx
+++ b/Enuda Learn Curriculum Standard - Math, Data Science, Computer Science, Statistics.xlsx
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0">
+    <comment ref="P8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
   <si>
     <t xml:space="preserve"> Grade</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Pre-Calculus</t>
+  </si>
+  <si>
+    <t>Algorithm Complexity Analysis</t>
   </si>
   <si>
     <t>Calculus AB</t>
@@ -2724,7 +2727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:T199"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2736,20 +2739,21 @@
     <col min="4" max="4" width="76.9609" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77344" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85156" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.17188" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.85156" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.0156" style="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.83594" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.0156" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3047" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.4219" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.17188" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1953" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.0156" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3047" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.4219" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.17188" style="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="1" customWidth="1"/>
-    <col min="20" max="256" width="12" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="1" customWidth="1"/>
+    <col min="21" max="256" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="44.6" customHeight="1">
@@ -2801,7 +2805,7 @@
       <c r="P1" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="3">
+      <c r="Q1" t="s" s="4">
         <v>16</v>
       </c>
       <c r="R1" t="s" s="3">
@@ -2810,272 +2814,280 @@
       <c r="S1" t="s" s="3">
         <v>18</v>
       </c>
+      <c r="T1" t="s" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" ht="57.65" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O2" s="6"/>
       <c r="P2" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" ht="24.65" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O3" s="6"/>
       <c r="P3" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
     </row>
     <row r="4" ht="35.65" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O4" s="6"/>
       <c r="P4" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
     </row>
     <row r="5" ht="35.65" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" t="s" s="5">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="O5" s="10"/>
       <c r="P5" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s" s="5">
+        <v>24</v>
+      </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="6" ht="24.65" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" t="s" s="5">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="O6" s="10"/>
       <c r="P6" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s" s="5">
+        <v>24</v>
+      </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" ht="24.65" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="11"/>
@@ -3083,113 +3095,116 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="9"/>
+      <c r="O7" s="6"/>
+      <c r="P7" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" ht="24.65" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="M8" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M8" s="11"/>
       <c r="N8" s="6"/>
-      <c r="O8" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="9"/>
+      <c r="O8" s="6"/>
+      <c r="P8" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="6"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
     </row>
     <row r="9" ht="35.65" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="M9" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M9" s="11"/>
       <c r="N9" s="6"/>
-      <c r="O9" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="9"/>
+      <c r="O9" s="6"/>
+      <c r="P9" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="6"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" ht="24.65" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="6"/>
@@ -3197,33 +3212,34 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="M10" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M10" s="11"/>
       <c r="N10" s="6"/>
-      <c r="O10" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="9"/>
+      <c r="O10" s="6"/>
+      <c r="P10" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="6"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
     </row>
     <row r="11" ht="46.65" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -3232,33 +3248,34 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="M11" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M11" s="11"/>
       <c r="N11" s="6"/>
-      <c r="O11" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="9"/>
+      <c r="O11" s="6"/>
+      <c r="P11" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="6"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" ht="46.65" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -3267,36 +3284,37 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="M12" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M12" s="11"/>
       <c r="N12" s="6"/>
-      <c r="O12" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="9"/>
+      <c r="O12" s="6"/>
+      <c r="P12" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="6"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" ht="35.65" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="6"/>
@@ -3305,30 +3323,31 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="M13" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M13" s="11"/>
       <c r="N13" s="6"/>
-      <c r="O13" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="9"/>
+      <c r="O13" s="6"/>
+      <c r="P13" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="6"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
     </row>
     <row r="14" ht="24.65" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -3338,30 +3357,31 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="M14" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M14" s="11"/>
       <c r="N14" s="6"/>
-      <c r="O14" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="9"/>
+      <c r="O14" s="6"/>
+      <c r="P14" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="6"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" ht="24.65" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -3371,28 +3391,29 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="M15" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
     </row>
     <row r="16" ht="24.65" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -3402,311 +3423,320 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="M16" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="6"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
     </row>
     <row r="17" ht="35.65" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="9"/>
+      <c r="O17" s="6"/>
+      <c r="P17" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="6"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="18" ht="24.65" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="9"/>
+      <c r="O18" s="6"/>
+      <c r="P18" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="6"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" ht="24.65" customHeight="1">
       <c r="A19" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="9"/>
+      <c r="O19" s="6"/>
+      <c r="P19" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="6"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
     </row>
     <row r="20" ht="24.65" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="9"/>
+      <c r="O20" s="6"/>
+      <c r="P20" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="6"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
     </row>
     <row r="21" ht="24.65" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="9"/>
+      <c r="O21" s="6"/>
+      <c r="P21" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="6"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
     </row>
     <row r="22" ht="32" customHeight="1">
       <c r="A22" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="9"/>
+      <c r="O22" s="6"/>
+      <c r="P22" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="6"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
     </row>
     <row r="23" ht="46.65" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="9"/>
+      <c r="O23" s="6"/>
+      <c r="P23" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="6"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
     </row>
     <row r="24" ht="18.5" customHeight="1">
       <c r="A24" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="9"/>
+      <c r="O24" s="6"/>
+      <c r="P24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="6"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
     </row>
     <row r="25" ht="35.65" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="6"/>
@@ -3715,31 +3745,32 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="6"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
     </row>
     <row r="26" ht="35.65" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="6"/>
@@ -3748,26 +3779,27 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="9"/>
+      <c r="Q26" s="6"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
     </row>
     <row r="27" ht="24.65" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -3775,32 +3807,33 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="9"/>
+      <c r="Q27" s="6"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
     </row>
     <row r="28" ht="24.65" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -3808,28 +3841,29 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="9"/>
+      <c r="Q28" s="6"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
     </row>
     <row r="29" ht="24.65" customHeight="1">
       <c r="A29" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -3839,28 +3873,29 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="9"/>
+      <c r="Q29" s="6"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
     </row>
     <row r="30" ht="35.65" customHeight="1">
       <c r="A30" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -3870,28 +3905,29 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="9"/>
+      <c r="Q30" s="6"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
     </row>
     <row r="31" ht="46.65" customHeight="1">
       <c r="A31" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -3901,28 +3937,29 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="9"/>
+      <c r="Q31" s="6"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
     </row>
     <row r="32" ht="35.65" customHeight="1">
       <c r="A32" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -3932,28 +3969,29 @@
       <c r="J32" s="11"/>
       <c r="K32" s="6"/>
       <c r="L32" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="9"/>
+      <c r="Q32" s="6"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
     </row>
     <row r="33" ht="35.65" customHeight="1">
       <c r="A33" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -3967,362 +4005,371 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="9"/>
+      <c r="Q33" s="6"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
     </row>
     <row r="34" ht="33" customHeight="1">
       <c r="A34" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L34" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M34" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N34" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O34" s="6"/>
-      <c r="P34" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q34" s="9"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
     </row>
     <row r="35" ht="18.5" customHeight="1">
       <c r="A35" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L35" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M35" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N35" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O35" s="6"/>
-      <c r="P35" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="9"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
     </row>
     <row r="36" ht="24.65" customHeight="1">
       <c r="A36" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L36" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M36" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N36" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O36" s="6"/>
-      <c r="P36" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q36" s="9"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
     </row>
     <row r="37" ht="35.65" customHeight="1">
       <c r="A37" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L37" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M37" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N37" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O37" s="6"/>
-      <c r="P37" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q37" s="9"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
     </row>
     <row r="38" ht="35.65" customHeight="1">
       <c r="A38" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L38" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M38" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N38" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O38" s="6"/>
-      <c r="P38" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q38" s="9"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
     </row>
     <row r="39" ht="18.5" customHeight="1">
       <c r="A39" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L39" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M39" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N39" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O39" s="6"/>
-      <c r="P39" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="9"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
     </row>
     <row r="40" ht="24.65" customHeight="1">
       <c r="A40" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L40" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M40" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N40" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O40" s="6"/>
-      <c r="P40" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q40" s="9"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
     </row>
     <row r="41" ht="35.65" customHeight="1">
       <c r="A41" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L41" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M41" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N41" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O41" s="6"/>
-      <c r="P41" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q41" s="9"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
     </row>
     <row r="42" ht="35.65" customHeight="1">
       <c r="A42" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -4332,30 +4379,31 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
-      <c r="P42" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q42" s="9"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
     </row>
     <row r="43" ht="35.65" customHeight="1">
       <c r="A43" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -4365,63 +4413,65 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M43" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N43" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M43" s="6"/>
+      <c r="N43" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="9"/>
+      <c r="Q43" s="6"/>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
     </row>
     <row r="44" ht="35.65" customHeight="1">
       <c r="A44" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="6"/>
       <c r="H44" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="9"/>
+      <c r="Q44" s="6"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
     </row>
     <row r="45" ht="35.65" customHeight="1">
       <c r="A45" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -4431,68 +4481,70 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="9"/>
+      <c r="Q45" s="6"/>
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
     </row>
     <row r="46" ht="35.65" customHeight="1">
       <c r="A46" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L46" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M46" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N46" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="N46" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="9"/>
+      <c r="Q46" s="6"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
     </row>
     <row r="47" ht="46.65" customHeight="1">
       <c r="A47" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="6"/>
@@ -4500,37 +4552,38 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L47" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M47" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N47" s="6"/>
-      <c r="O47" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O47" s="6"/>
       <c r="P47" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q47" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q47" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
     </row>
     <row r="48" ht="46.65" customHeight="1">
       <c r="A48" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -4540,32 +4593,33 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M48" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N48" s="6"/>
-      <c r="O48" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="P48" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="6"/>
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
     </row>
     <row r="49" ht="35.65" customHeight="1">
       <c r="A49" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -4575,577 +4629,591 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M49" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N49" s="6"/>
-      <c r="O49" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M49" s="6"/>
+      <c r="N49" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O49" s="6"/>
+      <c r="P49" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="6"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
     </row>
     <row r="50" ht="35.65" customHeight="1">
       <c r="A50" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H50" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I50" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L50" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M50" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N50" s="6"/>
-      <c r="O50" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M50" s="6"/>
+      <c r="N50" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O50" s="6"/>
       <c r="P50" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q50" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q50" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
     </row>
     <row r="51" ht="35.65" customHeight="1">
       <c r="A51" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L51" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M51" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N51" s="6"/>
-      <c r="O51" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M51" s="6"/>
+      <c r="N51" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O51" s="6"/>
       <c r="P51" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q51" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q51" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
     </row>
     <row r="52" ht="46.65" customHeight="1">
       <c r="A52" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L52" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M52" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N52" s="6"/>
-      <c r="O52" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M52" s="6"/>
+      <c r="N52" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O52" s="6"/>
       <c r="P52" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q52" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q52" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
     </row>
     <row r="53" ht="35.65" customHeight="1">
       <c r="A53" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L53" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M53" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N53" s="6"/>
-      <c r="O53" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M53" s="6"/>
+      <c r="N53" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O53" s="6"/>
       <c r="P53" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q53" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q53" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
     </row>
     <row r="54" ht="46.65" customHeight="1">
       <c r="A54" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L54" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M54" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N54" s="6"/>
-      <c r="O54" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="M54" s="6"/>
+      <c r="N54" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O54" s="6"/>
+      <c r="P54" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q54" s="6"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
     </row>
     <row r="55" ht="35.65" customHeight="1">
       <c r="A55" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="6"/>
       <c r="H55" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I55" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L55" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M55" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N55" s="6"/>
-      <c r="O55" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M55" s="6"/>
+      <c r="N55" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O55" s="6"/>
+      <c r="P55" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q55" s="6"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
     </row>
     <row r="56" ht="24.65" customHeight="1">
       <c r="A56" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H56" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I56" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L56" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M56" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N56" s="6"/>
-      <c r="O56" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M56" s="6"/>
+      <c r="N56" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O56" s="6"/>
+      <c r="P56" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="6"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
     </row>
     <row r="57" ht="24.65" customHeight="1">
       <c r="A57" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D57" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H57" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L57" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M57" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N57" s="6"/>
-      <c r="O57" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O57" s="6"/>
+      <c r="P57" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="6"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
     </row>
     <row r="58" ht="35.65" customHeight="1">
       <c r="A58" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I58" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L58" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M58" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N58" s="6"/>
-      <c r="O58" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M58" s="6"/>
+      <c r="N58" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O58" s="6"/>
+      <c r="P58" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q58" s="6"/>
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
     </row>
     <row r="59" ht="46.65" customHeight="1">
       <c r="A59" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L59" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M59" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N59" s="6"/>
-      <c r="O59" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O59" s="6"/>
+      <c r="P59" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="6"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
     </row>
     <row r="60" ht="35.65" customHeight="1">
       <c r="A60" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I60" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L60" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M60" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N60" s="6"/>
-      <c r="O60" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M60" s="6"/>
+      <c r="N60" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O60" s="6"/>
+      <c r="P60" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q60" s="6"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
     </row>
     <row r="61" ht="24.65" customHeight="1">
       <c r="A61" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I61" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L61" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M61" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N61" s="6"/>
-      <c r="O61" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="M61" s="6"/>
+      <c r="N61" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O61" s="6"/>
+      <c r="P61" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q61" s="6"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
     </row>
     <row r="62" ht="35.65" customHeight="1">
       <c r="A62" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L62" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M62" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N62" s="6"/>
-      <c r="O62" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="M62" s="6"/>
+      <c r="N62" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O62" s="6"/>
+      <c r="P62" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q62" s="6"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
     </row>
     <row r="63" ht="24.65" customHeight="1">
       <c r="A63" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -5155,30 +5223,31 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-      <c r="O63" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="9"/>
+      <c r="O63" s="6"/>
+      <c r="P63" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q63" s="6"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
     </row>
     <row r="64" ht="24.65" customHeight="1">
       <c r="A64" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -5188,901 +5257,923 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
-      <c r="O64" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="9"/>
+      <c r="O64" s="6"/>
+      <c r="P64" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q64" s="6"/>
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
     </row>
     <row r="65" ht="35.65" customHeight="1">
       <c r="A65" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="6"/>
       <c r="H65" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I65" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L65" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M65" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N65" s="6"/>
-      <c r="O65" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M65" s="6"/>
+      <c r="N65" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O65" s="6"/>
+      <c r="P65" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q65" s="6"/>
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
     </row>
     <row r="66" ht="57.65" customHeight="1">
       <c r="A66" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="6"/>
       <c r="H66" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I66" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L66" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M66" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N66" s="6"/>
-      <c r="O66" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M66" s="6"/>
+      <c r="N66" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O66" s="6"/>
+      <c r="P66" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q66" s="6"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
     </row>
     <row r="67" ht="46.65" customHeight="1">
       <c r="A67" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L67" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M67" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N67" s="6"/>
-      <c r="O67" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M67" s="6"/>
+      <c r="N67" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O67" s="6"/>
+      <c r="P67" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q67" s="6"/>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
     </row>
     <row r="68" ht="57.65" customHeight="1">
       <c r="A68" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D68" t="s" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L68" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M68" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N68" s="6"/>
-      <c r="O68" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M68" s="6"/>
+      <c r="N68" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O68" s="6"/>
       <c r="P68" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q68" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q68" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
     </row>
     <row r="69" ht="35.65" customHeight="1">
       <c r="A69" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L69" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M69" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N69" s="6"/>
-      <c r="O69" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M69" s="6"/>
+      <c r="N69" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O69" s="6"/>
       <c r="P69" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q69" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q69" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
     </row>
     <row r="70" ht="46.65" customHeight="1">
       <c r="A70" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L70" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="M70" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N70" s="6"/>
-      <c r="O70" t="s" s="8">
-        <v>24</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M70" s="6"/>
+      <c r="N70" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O70" s="6"/>
       <c r="P70" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q70" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="Q70" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
     </row>
     <row r="71" ht="57.65" customHeight="1">
       <c r="A71" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C71" t="s" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="6"/>
       <c r="H71" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I71" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L71" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M71" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N71" s="6"/>
-      <c r="O71" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M71" s="6"/>
+      <c r="N71" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O71" s="6"/>
       <c r="P71" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q71" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q71" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
     </row>
     <row r="72" ht="46.65" customHeight="1">
       <c r="A72" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="6"/>
       <c r="H72" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I72" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L72" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M72" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N72" s="6"/>
-      <c r="O72" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M72" s="6"/>
+      <c r="N72" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O72" s="6"/>
       <c r="P72" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q72" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q72" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
     </row>
     <row r="73" ht="35.65" customHeight="1">
       <c r="A73" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D73" t="s" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="6"/>
       <c r="L73" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M73" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="N73" s="11"/>
-      <c r="O73" t="s" s="8">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M73" s="6"/>
+      <c r="N73" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="O73" s="11"/>
       <c r="P73" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q73" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="Q73" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
     </row>
     <row r="74" ht="35.65" customHeight="1">
       <c r="A74" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="6"/>
       <c r="H74" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I74" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J74" s="11"/>
       <c r="K74" s="6"/>
       <c r="L74" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M74" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="N74" s="11"/>
-      <c r="O74" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M74" s="6"/>
+      <c r="N74" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="O74" s="11"/>
       <c r="P74" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q74" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q74" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
     </row>
     <row r="75" ht="18.5" customHeight="1">
       <c r="A75" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I75" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L75" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M75" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N75" s="6"/>
-      <c r="O75" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M75" s="6"/>
+      <c r="N75" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O75" s="6"/>
       <c r="P75" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q75" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q75" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
     </row>
     <row r="76" ht="24.65" customHeight="1">
       <c r="A76" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L76" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M76" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N76" s="6"/>
-      <c r="O76" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M76" s="6"/>
+      <c r="N76" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O76" s="6"/>
       <c r="P76" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q76" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q76" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
     </row>
     <row r="77" ht="24.65" customHeight="1">
       <c r="A77" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L77" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M77" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N77" s="6"/>
-      <c r="O77" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M77" s="6"/>
+      <c r="N77" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O77" s="6"/>
       <c r="P77" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q77" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q77" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
     </row>
     <row r="78" ht="24.65" customHeight="1">
       <c r="A78" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D78" t="s" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="6"/>
       <c r="H78" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M78" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="N78" s="11"/>
-      <c r="O78" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M78" s="6"/>
+      <c r="N78" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="O78" s="11"/>
       <c r="P78" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q78" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q78" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
     </row>
     <row r="79" ht="24.65" customHeight="1">
       <c r="A79" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="6"/>
       <c r="H79" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I79" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L79" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M79" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N79" s="6"/>
-      <c r="O79" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M79" s="6"/>
+      <c r="N79" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O79" s="6"/>
       <c r="P79" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q79" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q79" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
     </row>
     <row r="80" ht="24.65" customHeight="1">
       <c r="A80" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D80" t="s" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="6"/>
       <c r="H80" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I80" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L80" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M80" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N80" s="6"/>
-      <c r="O80" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M80" s="6"/>
+      <c r="N80" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O80" s="6"/>
       <c r="P80" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q80" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q80" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
     </row>
     <row r="81" ht="24.65" customHeight="1">
       <c r="A81" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D81" t="s" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="6"/>
       <c r="H81" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I81" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L81" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M81" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N81" s="6"/>
-      <c r="O81" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M81" s="6"/>
+      <c r="N81" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O81" s="6"/>
       <c r="P81" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q81" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q81" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
     </row>
     <row r="82" ht="35.65" customHeight="1">
       <c r="A82" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="6"/>
       <c r="H82" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I82" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M82" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N82" s="6"/>
-      <c r="O82" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M82" s="6"/>
+      <c r="N82" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O82" s="6"/>
       <c r="P82" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q82" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q82" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
     </row>
     <row r="83" ht="46.65" customHeight="1">
       <c r="A83" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B83" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D83" t="s" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="6"/>
       <c r="H83" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I83" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L83" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M83" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N83" s="6"/>
-      <c r="O83" t="s" s="8">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M83" s="6"/>
+      <c r="N83" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O83" s="6"/>
       <c r="P83" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q83" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q83" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
     </row>
     <row r="84" ht="24.65" customHeight="1">
       <c r="A84" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D84" t="s" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L84" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M84" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N84" s="6"/>
-      <c r="O84" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M84" s="6"/>
+      <c r="N84" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O84" s="6"/>
+      <c r="P84" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q84" s="6"/>
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
     </row>
     <row r="85" ht="24.65" customHeight="1">
       <c r="A85" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L85" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="M85" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N85" s="6"/>
-      <c r="O85" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="M85" s="6"/>
+      <c r="N85" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O85" s="6"/>
+      <c r="P85" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q85" s="6"/>
       <c r="R85" s="9"/>
       <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
     </row>
     <row r="86" ht="35.65" customHeight="1">
       <c r="A86" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C86" t="s" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -6092,69 +6183,71 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M86" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="N86" s="11"/>
-      <c r="O86" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="M86" s="6"/>
+      <c r="N86" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="O86" s="11"/>
+      <c r="P86" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q86" s="6"/>
       <c r="R86" s="9"/>
       <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
     </row>
     <row r="87" ht="35.65" customHeight="1">
       <c r="A87" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H87" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
-      <c r="O87" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="9"/>
+      <c r="O87" s="6"/>
+      <c r="P87" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q87" s="6"/>
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
     </row>
     <row r="88" ht="35.65" customHeight="1">
       <c r="A88" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B88" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C88" t="s" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -6164,1764 +6257,1813 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
-      <c r="O88" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="9"/>
+      <c r="O88" s="6"/>
+      <c r="P88" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q88" s="6"/>
       <c r="R88" s="9"/>
       <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
     </row>
     <row r="89" ht="57.65" customHeight="1">
       <c r="A89" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B89" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C89" t="s" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D89" t="s" s="4">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
-      <c r="O89" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="9"/>
+      <c r="O89" s="6"/>
+      <c r="P89" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q89" s="6"/>
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
     </row>
     <row r="90" ht="18.5" customHeight="1">
       <c r="A90" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s" s="4">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="6"/>
       <c r="H90" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I90" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L90" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M90" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N90" s="6"/>
-      <c r="O90" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="M90" s="6"/>
+      <c r="N90" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O90" s="6"/>
+      <c r="P90" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q90" s="6"/>
       <c r="R90" s="9"/>
       <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
     </row>
     <row r="91" ht="35.65" customHeight="1">
       <c r="A91" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B91" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C91" t="s" s="4">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s" s="4">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="6"/>
       <c r="H91" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I91" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L91" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M91" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N91" s="6"/>
-      <c r="O91" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="M91" s="6"/>
+      <c r="N91" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O91" s="6"/>
+      <c r="P91" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q91" s="6"/>
       <c r="R91" s="9"/>
       <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
     </row>
     <row r="92" ht="18.5" customHeight="1">
       <c r="A92" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C92" t="s" s="4">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D92" t="s" s="4">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="6"/>
       <c r="H92" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I92" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J92" s="6"/>
       <c r="K92" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L92" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M92" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N92" s="6"/>
-      <c r="O92" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="M92" s="6"/>
+      <c r="N92" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O92" s="6"/>
+      <c r="P92" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q92" s="6"/>
       <c r="R92" s="9"/>
       <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
     </row>
     <row r="93" ht="24.65" customHeight="1">
       <c r="A93" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C93" t="s" s="4">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D93" t="s" s="4">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="6"/>
       <c r="H93" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I93" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L93" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M93" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N93" s="6"/>
-      <c r="O93" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="M93" s="6"/>
+      <c r="N93" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O93" s="6"/>
+      <c r="P93" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q93" s="6"/>
       <c r="R93" s="9"/>
       <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
     </row>
     <row r="94" ht="24.65" customHeight="1">
       <c r="A94" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C94" t="s" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D94" t="s" s="4">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="6"/>
       <c r="H94" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I94" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L94" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M94" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N94" s="6"/>
-      <c r="O94" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="M94" s="6"/>
+      <c r="N94" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O94" s="6"/>
+      <c r="P94" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q94" s="6"/>
       <c r="R94" s="9"/>
       <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
     </row>
     <row r="95" ht="24.65" customHeight="1">
       <c r="A95" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B95" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C95" t="s" s="4">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D95" t="s" s="4">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="6"/>
       <c r="H95" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I95" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J95" s="6"/>
       <c r="K95" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L95" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="M95" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N95" s="6"/>
-      <c r="O95" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="M95" s="6"/>
+      <c r="N95" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O95" s="6"/>
+      <c r="P95" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q95" s="6"/>
       <c r="R95" s="9"/>
       <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
     </row>
     <row r="96" ht="35.65" customHeight="1">
       <c r="A96" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B96" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C96" t="s" s="4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D96" t="s" s="4">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L96" s="6"/>
-      <c r="M96" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O96" s="6"/>
-      <c r="P96" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q96" s="9"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R96" s="9"/>
       <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
     </row>
     <row r="97" ht="24.65" customHeight="1">
       <c r="A97" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B97" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C97" t="s" s="4">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D97" t="s" s="4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L97" s="6"/>
-      <c r="M97" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O97" s="6"/>
-      <c r="P97" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q97" s="9"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R97" s="9"/>
       <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
     </row>
     <row r="98" ht="24.65" customHeight="1">
       <c r="A98" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C98" t="s" s="4">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D98" t="s" s="4">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L98" s="6"/>
-      <c r="M98" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O98" s="6"/>
-      <c r="P98" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q98" s="9"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R98" s="9"/>
       <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
     </row>
     <row r="99" ht="24.65" customHeight="1">
       <c r="A99" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B99" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s" s="4">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D99" t="s" s="4">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J99" s="6"/>
       <c r="K99" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L99" s="6"/>
-      <c r="M99" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O99" s="6"/>
-      <c r="P99" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q99" s="9"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R99" s="9"/>
       <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
     </row>
     <row r="100" ht="35.65" customHeight="1">
       <c r="A100" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B100" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C100" t="s" s="4">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s" s="4">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L100" s="6"/>
-      <c r="M100" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O100" s="6"/>
-      <c r="P100" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q100" s="9"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R100" s="9"/>
       <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
     </row>
     <row r="101" ht="35.65" customHeight="1">
       <c r="A101" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B101" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C101" t="s" s="4">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D101" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L101" s="6"/>
-      <c r="M101" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O101" s="6"/>
-      <c r="P101" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q101" s="9"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R101" s="9"/>
       <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
     </row>
     <row r="102" ht="35.65" customHeight="1">
       <c r="A102" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s" s="4">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D102" t="s" s="4">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J102" s="6"/>
       <c r="K102" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L102" s="6"/>
-      <c r="M102" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O102" s="6"/>
-      <c r="P102" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q102" s="9"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
     </row>
     <row r="103" ht="24.65" customHeight="1">
       <c r="A103" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s" s="4">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D103" t="s" s="4">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J103" s="6"/>
       <c r="K103" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L103" s="6"/>
-      <c r="M103" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O103" s="6"/>
-      <c r="P103" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="Q103" s="9"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
     </row>
     <row r="104" ht="24.65" customHeight="1">
       <c r="A104" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B104" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C104" t="s" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D104" t="s" s="4">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J104" s="6"/>
       <c r="K104" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L104" s="6"/>
-      <c r="M104" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
-      <c r="Q104" s="9"/>
+      <c r="Q104" s="6"/>
       <c r="R104" s="9"/>
       <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
     </row>
     <row r="105" ht="35.65" customHeight="1">
       <c r="A105" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C105" t="s" s="4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D105" t="s" s="4">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J105" s="6"/>
       <c r="K105" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L105" s="6"/>
-      <c r="M105" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
-      <c r="Q105" s="9"/>
+      <c r="Q105" s="6"/>
       <c r="R105" s="9"/>
       <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
     </row>
     <row r="106" ht="46.65" customHeight="1">
       <c r="A106" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B106" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D106" t="s" s="4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J106" s="6"/>
       <c r="K106" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L106" s="6"/>
-      <c r="M106" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
-      <c r="Q106" s="9"/>
+      <c r="Q106" s="6"/>
       <c r="R106" s="9"/>
       <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
     </row>
     <row r="107" ht="24.65" customHeight="1">
       <c r="A107" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C107" t="s" s="4">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D107" t="s" s="4">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
       <c r="I107" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J107" s="6"/>
       <c r="K107" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L107" s="6"/>
-      <c r="M107" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
-      <c r="Q107" s="9"/>
+      <c r="Q107" s="6"/>
       <c r="R107" s="9"/>
       <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
     </row>
     <row r="108" ht="24.65" customHeight="1">
       <c r="A108" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C108" t="s" s="4">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D108" t="s" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J108" s="6"/>
       <c r="K108" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L108" s="6"/>
-      <c r="M108" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
-      <c r="Q108" s="9"/>
+      <c r="Q108" s="6"/>
       <c r="R108" s="9"/>
       <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
     </row>
     <row r="109" ht="35.65" customHeight="1">
       <c r="A109" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D109" t="s" s="4">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L109" s="6"/>
-      <c r="M109" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
-      <c r="Q109" s="9"/>
+      <c r="Q109" s="6"/>
       <c r="R109" s="9"/>
       <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
     </row>
     <row r="110" ht="35.65" customHeight="1">
       <c r="A110" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B110" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C110" t="s" s="4">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D110" t="s" s="4">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J110" s="6"/>
       <c r="K110" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L110" s="6"/>
-      <c r="M110" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
-      <c r="Q110" s="9"/>
+      <c r="Q110" s="6"/>
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
     </row>
     <row r="111" ht="35.65" customHeight="1">
       <c r="A111" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C111" t="s" s="4">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D111" t="s" s="4">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J111" s="6"/>
       <c r="K111" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L111" s="6"/>
-      <c r="M111" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
-      <c r="Q111" s="9"/>
+      <c r="Q111" s="6"/>
       <c r="R111" s="9"/>
       <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
     </row>
     <row r="112" ht="24.65" customHeight="1">
       <c r="A112" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s" s="4">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D112" t="s" s="4">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J112" s="6"/>
       <c r="K112" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L112" s="6"/>
-      <c r="M112" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
-      <c r="Q112" s="9"/>
+      <c r="Q112" s="6"/>
       <c r="R112" s="9"/>
       <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
     </row>
     <row r="113" ht="35.65" customHeight="1">
       <c r="A113" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B113" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s" s="4">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D113" t="s" s="4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J113" s="6"/>
       <c r="K113" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L113" s="6"/>
-      <c r="M113" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
-      <c r="Q113" s="9"/>
+      <c r="Q113" s="6"/>
       <c r="R113" s="9"/>
       <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
     </row>
     <row r="114" ht="46.65" customHeight="1">
       <c r="A114" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C114" t="s" s="4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D114" t="s" s="4">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J114" s="6"/>
       <c r="K114" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L114" s="6"/>
-      <c r="M114" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
-      <c r="Q114" s="9"/>
+      <c r="Q114" s="6"/>
       <c r="R114" s="9"/>
       <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
     </row>
     <row r="115" ht="24.65" customHeight="1">
       <c r="A115" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C115" t="s" s="4">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D115" t="s" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
       <c r="I115" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J115" s="6"/>
       <c r="K115" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L115" s="6"/>
-      <c r="M115" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
-      <c r="Q115" s="9"/>
+      <c r="Q115" s="6"/>
       <c r="R115" s="9"/>
       <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
     </row>
     <row r="116" ht="35.65" customHeight="1">
       <c r="A116" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C116" t="s" s="4">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D116" t="s" s="4">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J116" s="6"/>
       <c r="K116" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L116" s="6"/>
-      <c r="M116" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
-      <c r="Q116" s="9"/>
+      <c r="Q116" s="6"/>
       <c r="R116" s="9"/>
       <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
     </row>
     <row r="117" ht="35.65" customHeight="1">
       <c r="A117" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B117" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C117" t="s" s="4">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D117" t="s" s="4">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
       <c r="I117" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J117" s="6"/>
       <c r="K117" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L117" s="6"/>
-      <c r="M117" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
-      <c r="Q117" s="9"/>
+      <c r="Q117" s="6"/>
       <c r="R117" s="9"/>
       <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
     </row>
     <row r="118" ht="35.65" customHeight="1">
       <c r="A118" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B118" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D118" t="s" s="4">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J118" s="6"/>
       <c r="K118" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L118" s="6"/>
-      <c r="M118" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
-      <c r="Q118" s="9"/>
+      <c r="Q118" s="6"/>
       <c r="R118" s="9"/>
       <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
     </row>
     <row r="119" ht="35.65" customHeight="1">
       <c r="A119" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B119" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C119" t="s" s="4">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D119" t="s" s="4">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J119" s="6"/>
       <c r="K119" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L119" s="6"/>
-      <c r="M119" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O119" s="6"/>
       <c r="P119" s="6"/>
-      <c r="Q119" s="9"/>
+      <c r="Q119" s="6"/>
       <c r="R119" s="9"/>
       <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
     </row>
     <row r="120" ht="24.65" customHeight="1">
       <c r="A120" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C120" t="s" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D120" t="s" s="4">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
       <c r="I120" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J120" s="6"/>
       <c r="K120" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L120" s="6"/>
-      <c r="M120" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
-      <c r="Q120" s="9"/>
+      <c r="Q120" s="6"/>
       <c r="R120" s="9"/>
       <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
     </row>
     <row r="121" ht="46.65" customHeight="1">
       <c r="A121" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B121" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C121" t="s" s="4">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D121" t="s" s="4">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
       <c r="I121" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J121" s="6"/>
       <c r="K121" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L121" s="6"/>
-      <c r="M121" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
-      <c r="Q121" s="9"/>
+      <c r="Q121" s="6"/>
       <c r="R121" s="9"/>
       <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
     </row>
     <row r="122" ht="46.65" customHeight="1">
       <c r="A122" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B122" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C122" t="s" s="4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D122" t="s" s="4">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
       <c r="I122" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J122" s="6"/>
       <c r="K122" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L122" s="6"/>
-      <c r="M122" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
-      <c r="Q122" s="9"/>
+      <c r="Q122" s="6"/>
       <c r="R122" s="9"/>
       <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
     </row>
     <row r="123" ht="35.65" customHeight="1">
       <c r="A123" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C123" t="s" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D123" t="s" s="4">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
       <c r="I123" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J123" s="6"/>
       <c r="K123" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L123" s="6"/>
-      <c r="M123" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
-      <c r="Q123" s="9"/>
+      <c r="Q123" s="6"/>
       <c r="R123" s="9"/>
       <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
     </row>
     <row r="124" ht="57.65" customHeight="1">
       <c r="A124" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C124" t="s" s="4">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D124" t="s" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J124" s="6"/>
       <c r="K124" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L124" s="6"/>
-      <c r="M124" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O124" s="6"/>
       <c r="P124" s="6"/>
-      <c r="Q124" s="9"/>
+      <c r="Q124" s="6"/>
       <c r="R124" s="9"/>
       <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
     </row>
     <row r="125" ht="24.65" customHeight="1">
       <c r="A125" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B125" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C125" t="s" s="4">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D125" t="s" s="4">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
       <c r="I125" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J125" s="6"/>
       <c r="K125" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L125" s="6"/>
-      <c r="M125" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O125" s="6"/>
       <c r="P125" s="6"/>
-      <c r="Q125" s="9"/>
+      <c r="Q125" s="6"/>
       <c r="R125" s="9"/>
       <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
     </row>
     <row r="126" ht="57.65" customHeight="1">
       <c r="A126" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C126" t="s" s="4">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D126" t="s" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J126" s="6"/>
       <c r="K126" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L126" s="6"/>
-      <c r="M126" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
-      <c r="Q126" s="9"/>
+      <c r="Q126" s="6"/>
       <c r="R126" s="9"/>
       <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
     </row>
     <row r="127" ht="46.65" customHeight="1">
       <c r="A127" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C127" t="s" s="4">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D127" t="s" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
       <c r="I127" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J127" s="6"/>
       <c r="K127" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L127" s="6"/>
-      <c r="M127" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O127" s="6"/>
       <c r="P127" s="6"/>
-      <c r="Q127" s="9"/>
+      <c r="Q127" s="6"/>
       <c r="R127" s="9"/>
       <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
     </row>
     <row r="128" ht="24.65" customHeight="1">
       <c r="A128" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B128" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C128" t="s" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D128" t="s" s="4">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
       <c r="I128" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J128" s="6"/>
       <c r="K128" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L128" s="6"/>
-      <c r="M128" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O128" s="6"/>
       <c r="P128" s="6"/>
-      <c r="Q128" s="9"/>
+      <c r="Q128" s="6"/>
       <c r="R128" s="9"/>
       <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
     </row>
     <row r="129" ht="35.65" customHeight="1">
       <c r="A129" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B129" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C129" t="s" s="4">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D129" t="s" s="4">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J129" s="6"/>
       <c r="K129" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L129" s="6"/>
-      <c r="M129" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
-      <c r="Q129" s="9"/>
+      <c r="Q129" s="6"/>
       <c r="R129" s="9"/>
       <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
     </row>
     <row r="130" ht="24.65" customHeight="1">
       <c r="A130" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B130" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C130" t="s" s="4">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D130" t="s" s="4">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
       <c r="I130" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J130" s="6"/>
       <c r="K130" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L130" s="6"/>
-      <c r="M130" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
-      <c r="Q130" s="9"/>
+      <c r="Q130" s="6"/>
       <c r="R130" s="9"/>
       <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
     </row>
     <row r="131" ht="35.65" customHeight="1">
       <c r="A131" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C131" t="s" s="4">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D131" t="s" s="4">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
       <c r="I131" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J131" s="6"/>
       <c r="K131" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L131" s="6"/>
-      <c r="M131" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
-      <c r="Q131" s="9"/>
+      <c r="Q131" s="6"/>
       <c r="R131" s="9"/>
       <c r="S131" s="9"/>
+      <c r="T131" s="9"/>
     </row>
     <row r="132" ht="24.65" customHeight="1">
       <c r="A132" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C132" t="s" s="4">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D132" t="s" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
       <c r="I132" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J132" s="6"/>
       <c r="K132" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L132" s="6"/>
-      <c r="M132" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O132" s="6"/>
       <c r="P132" s="6"/>
-      <c r="Q132" s="9"/>
+      <c r="Q132" s="6"/>
       <c r="R132" s="9"/>
       <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
     </row>
     <row r="133" ht="24.65" customHeight="1">
       <c r="A133" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C133" t="s" s="4">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D133" t="s" s="4">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
       <c r="I133" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J133" s="6"/>
       <c r="K133" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L133" s="6"/>
-      <c r="M133" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O133" s="6"/>
       <c r="P133" s="6"/>
-      <c r="Q133" s="9"/>
+      <c r="Q133" s="6"/>
       <c r="R133" s="9"/>
       <c r="S133" s="9"/>
+      <c r="T133" s="9"/>
     </row>
     <row r="134" ht="24.65" customHeight="1">
       <c r="A134" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C134" t="s" s="4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D134" t="s" s="4">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
       <c r="I134" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J134" s="6"/>
       <c r="K134" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L134" s="6"/>
-      <c r="M134" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O134" s="6"/>
       <c r="P134" s="6"/>
-      <c r="Q134" s="9"/>
+      <c r="Q134" s="6"/>
       <c r="R134" s="9"/>
       <c r="S134" s="9"/>
+      <c r="T134" s="9"/>
     </row>
     <row r="135" ht="24.65" customHeight="1">
       <c r="A135" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C135" t="s" s="4">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D135" t="s" s="4">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
       <c r="I135" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J135" s="6"/>
       <c r="K135" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L135" s="6"/>
-      <c r="M135" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O135" s="6"/>
       <c r="P135" s="6"/>
-      <c r="Q135" s="9"/>
+      <c r="Q135" s="6"/>
       <c r="R135" s="9"/>
       <c r="S135" s="9"/>
+      <c r="T135" s="9"/>
     </row>
     <row r="136" ht="35.65" customHeight="1">
       <c r="A136" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C136" t="s" s="4">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D136" t="s" s="4">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
       <c r="I136" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J136" s="6"/>
       <c r="K136" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L136" s="6"/>
-      <c r="M136" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O136" s="6"/>
       <c r="P136" s="6"/>
-      <c r="Q136" s="9"/>
+      <c r="Q136" s="6"/>
       <c r="R136" s="9"/>
       <c r="S136" s="9"/>
+      <c r="T136" s="9"/>
     </row>
     <row r="137" ht="18.5" customHeight="1">
       <c r="A137" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C137" t="s" s="4">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D137" t="s" s="4">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
@@ -7931,28 +8073,29 @@
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
-      <c r="M137" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O137" s="6"/>
       <c r="P137" s="6"/>
-      <c r="Q137" s="9"/>
+      <c r="Q137" s="6"/>
       <c r="R137" s="9"/>
       <c r="S137" s="9"/>
+      <c r="T137" s="9"/>
     </row>
     <row r="138" ht="46.65" customHeight="1">
       <c r="A138" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B138" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C138" t="s" s="4">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D138" t="s" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
@@ -7962,28 +8105,29 @@
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
-      <c r="M138" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O138" s="6"/>
       <c r="P138" s="6"/>
-      <c r="Q138" s="9"/>
+      <c r="Q138" s="6"/>
       <c r="R138" s="9"/>
       <c r="S138" s="9"/>
+      <c r="T138" s="9"/>
     </row>
     <row r="139" ht="35.65" customHeight="1">
       <c r="A139" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B139" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C139" t="s" s="4">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D139" t="s" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
@@ -7993,28 +8137,29 @@
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
-      <c r="M139" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O139" s="6"/>
       <c r="P139" s="6"/>
-      <c r="Q139" s="9"/>
+      <c r="Q139" s="6"/>
       <c r="R139" s="9"/>
       <c r="S139" s="9"/>
+      <c r="T139" s="9"/>
     </row>
     <row r="140" ht="24.65" customHeight="1">
       <c r="A140" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B140" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C140" t="s" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D140" t="s" s="4">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
@@ -8024,28 +8169,29 @@
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
-      <c r="M140" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O140" s="6"/>
       <c r="P140" s="6"/>
-      <c r="Q140" s="9"/>
+      <c r="Q140" s="6"/>
       <c r="R140" s="9"/>
       <c r="S140" s="9"/>
+      <c r="T140" s="9"/>
     </row>
     <row r="141" ht="35.65" customHeight="1">
       <c r="A141" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B141" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C141" t="s" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D141" t="s" s="4">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -8055,446 +8201,459 @@
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
-      <c r="M141" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O141" s="6"/>
       <c r="P141" s="6"/>
-      <c r="Q141" s="9"/>
+      <c r="Q141" s="6"/>
       <c r="R141" s="9"/>
       <c r="S141" s="9"/>
+      <c r="T141" s="9"/>
     </row>
     <row r="142" ht="35.65" customHeight="1">
       <c r="A142" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B142" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C142" t="s" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D142" t="s" s="4">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J142" s="6"/>
       <c r="K142" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L142" s="6"/>
-      <c r="M142" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
-      <c r="Q142" s="9"/>
+      <c r="Q142" s="6"/>
       <c r="R142" s="9"/>
       <c r="S142" s="9"/>
+      <c r="T142" s="9"/>
     </row>
     <row r="143" ht="24.65" customHeight="1">
       <c r="A143" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B143" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C143" t="s" s="4">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D143" t="s" s="4">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
       <c r="I143" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J143" s="6"/>
       <c r="K143" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L143" s="6"/>
-      <c r="M143" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O143" s="6"/>
       <c r="P143" s="6"/>
-      <c r="Q143" s="9"/>
+      <c r="Q143" s="6"/>
       <c r="R143" s="9"/>
       <c r="S143" s="9"/>
+      <c r="T143" s="9"/>
     </row>
     <row r="144" ht="35.65" customHeight="1">
       <c r="A144" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C144" t="s" s="4">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D144" t="s" s="4">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
       <c r="I144" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J144" s="11"/>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
-      <c r="O144" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="9"/>
+      <c r="O144" s="6"/>
+      <c r="P144" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q144" s="6"/>
       <c r="R144" s="9"/>
       <c r="S144" s="9"/>
+      <c r="T144" s="9"/>
     </row>
     <row r="145" ht="35.65" customHeight="1">
       <c r="A145" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B145" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C145" t="s" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D145" t="s" s="4">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
       <c r="I145" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J145" s="11"/>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
-      <c r="M145" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N145" s="6"/>
-      <c r="O145" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="9"/>
+      <c r="M145" s="6"/>
+      <c r="N145" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="O145" s="6"/>
+      <c r="P145" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q145" s="6"/>
       <c r="R145" s="9"/>
       <c r="S145" s="9"/>
+      <c r="T145" s="9"/>
     </row>
     <row r="146" ht="35.65" customHeight="1">
       <c r="A146" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C146" t="s" s="4">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D146" t="s" s="4">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
       <c r="I146" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J146" s="6"/>
       <c r="K146" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L146" s="6"/>
-      <c r="M146" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O146" s="6"/>
       <c r="P146" s="6"/>
-      <c r="Q146" s="9"/>
+      <c r="Q146" s="6"/>
       <c r="R146" s="9"/>
       <c r="S146" s="9"/>
+      <c r="T146" s="9"/>
     </row>
     <row r="147" ht="24.65" customHeight="1">
       <c r="A147" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C147" t="s" s="4">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D147" t="s" s="4">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
       <c r="I147" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J147" s="6"/>
       <c r="K147" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L147" s="6"/>
-      <c r="M147" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O147" s="6"/>
       <c r="P147" s="6"/>
-      <c r="Q147" s="9"/>
+      <c r="Q147" s="6"/>
       <c r="R147" s="9"/>
       <c r="S147" s="9"/>
+      <c r="T147" s="9"/>
     </row>
     <row r="148" ht="35.65" customHeight="1">
       <c r="A148" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B148" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C148" t="s" s="4">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D148" t="s" s="4">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
       <c r="I148" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J148" s="6"/>
       <c r="K148" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L148" s="6"/>
-      <c r="M148" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O148" s="6"/>
       <c r="P148" s="6"/>
-      <c r="Q148" s="9"/>
+      <c r="Q148" s="6"/>
       <c r="R148" s="9"/>
       <c r="S148" s="9"/>
+      <c r="T148" s="9"/>
     </row>
     <row r="149" ht="35.65" customHeight="1">
       <c r="A149" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C149" t="s" s="4">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D149" t="s" s="4">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J149" s="6"/>
       <c r="K149" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L149" s="6"/>
-      <c r="M149" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O149" s="6"/>
       <c r="P149" s="6"/>
-      <c r="Q149" s="9"/>
+      <c r="Q149" s="6"/>
       <c r="R149" s="9"/>
       <c r="S149" s="9"/>
+      <c r="T149" s="9"/>
     </row>
     <row r="150" ht="24.65" customHeight="1">
       <c r="A150" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C150" t="s" s="4">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D150" t="s" s="4">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
       <c r="I150" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J150" s="6"/>
       <c r="K150" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L150" s="6"/>
-      <c r="M150" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O150" s="6"/>
       <c r="P150" s="6"/>
-      <c r="Q150" s="9"/>
+      <c r="Q150" s="6"/>
       <c r="R150" s="9"/>
       <c r="S150" s="9"/>
+      <c r="T150" s="9"/>
     </row>
     <row r="151" ht="24.65" customHeight="1">
       <c r="A151" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B151" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C151" t="s" s="4">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D151" t="s" s="4">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
       <c r="I151" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J151" s="6"/>
       <c r="K151" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L151" s="6"/>
-      <c r="M151" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O151" s="6"/>
       <c r="P151" s="6"/>
-      <c r="Q151" s="9"/>
+      <c r="Q151" s="6"/>
       <c r="R151" s="9"/>
       <c r="S151" s="9"/>
+      <c r="T151" s="9"/>
     </row>
     <row r="152" ht="35.65" customHeight="1">
       <c r="A152" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C152" t="s" s="4">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D152" t="s" s="4">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
       <c r="I152" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J152" s="6"/>
       <c r="K152" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L152" s="6"/>
-      <c r="M152" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O152" s="6"/>
       <c r="P152" s="6"/>
-      <c r="Q152" s="9"/>
+      <c r="Q152" s="6"/>
       <c r="R152" s="9"/>
       <c r="S152" s="9"/>
+      <c r="T152" s="9"/>
     </row>
     <row r="153" ht="35.65" customHeight="1">
       <c r="A153" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B153" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C153" t="s" s="4">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D153" t="s" s="4">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
       <c r="I153" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J153" s="6"/>
       <c r="K153" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L153" s="6"/>
-      <c r="M153" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O153" s="6"/>
       <c r="P153" s="6"/>
-      <c r="Q153" s="9"/>
+      <c r="Q153" s="6"/>
       <c r="R153" s="9"/>
       <c r="S153" s="9"/>
+      <c r="T153" s="9"/>
     </row>
     <row r="154" ht="24.65" customHeight="1">
       <c r="A154" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B154" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C154" t="s" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D154" t="s" s="4">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
@@ -8504,28 +8663,29 @@
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
-      <c r="M154" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="N154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" t="s" s="8">
+        <v>24</v>
+      </c>
       <c r="O154" s="6"/>
       <c r="P154" s="6"/>
-      <c r="Q154" s="9"/>
+      <c r="Q154" s="6"/>
       <c r="R154" s="9"/>
       <c r="S154" s="9"/>
+      <c r="T154" s="9"/>
     </row>
     <row r="155" ht="35.65" customHeight="1">
       <c r="A155" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B155" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C155" t="s" s="4">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D155" t="s" s="4">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
@@ -8535,35 +8695,36 @@
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
-      <c r="M155" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="N155" s="11"/>
-      <c r="O155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="O155" s="11"/>
       <c r="P155" s="6"/>
-      <c r="Q155" s="9"/>
+      <c r="Q155" s="6"/>
       <c r="R155" s="9"/>
       <c r="S155" s="9"/>
+      <c r="T155" s="9"/>
     </row>
     <row r="156" ht="24.65" customHeight="1">
       <c r="A156" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B156" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C156" t="s" s="4">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D156" t="s" s="4">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
       <c r="I156" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J156" s="11"/>
       <c r="K156" s="6"/>
@@ -8571,32 +8732,33 @@
       <c r="M156" s="6"/>
       <c r="N156" s="6"/>
       <c r="O156" s="6"/>
-      <c r="P156" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q156" s="9"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R156" s="9"/>
       <c r="S156" s="9"/>
+      <c r="T156" s="9"/>
     </row>
     <row r="157" ht="35.65" customHeight="1">
       <c r="A157" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B157" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C157" t="s" s="4">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D157" t="s" s="4">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
       <c r="I157" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J157" s="11"/>
       <c r="K157" s="6"/>
@@ -8604,32 +8766,33 @@
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
       <c r="O157" s="6"/>
-      <c r="P157" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q157" s="9"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R157" s="9"/>
       <c r="S157" s="9"/>
+      <c r="T157" s="9"/>
     </row>
     <row r="158" ht="35.65" customHeight="1">
       <c r="A158" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B158" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C158" t="s" s="4">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D158" t="s" s="4">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
       <c r="I158" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J158" s="11"/>
       <c r="K158" s="6"/>
@@ -8637,32 +8800,33 @@
       <c r="M158" s="6"/>
       <c r="N158" s="6"/>
       <c r="O158" s="6"/>
-      <c r="P158" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q158" s="9"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R158" s="9"/>
       <c r="S158" s="9"/>
+      <c r="T158" s="9"/>
     </row>
     <row r="159" ht="46.65" customHeight="1">
       <c r="A159" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B159" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C159" t="s" s="4">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D159" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
       <c r="I159" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J159" s="11"/>
       <c r="K159" s="6"/>
@@ -8670,32 +8834,33 @@
       <c r="M159" s="6"/>
       <c r="N159" s="6"/>
       <c r="O159" s="6"/>
-      <c r="P159" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q159" s="9"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R159" s="9"/>
       <c r="S159" s="9"/>
+      <c r="T159" s="9"/>
     </row>
     <row r="160" ht="46.65" customHeight="1">
       <c r="A160" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B160" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C160" t="s" s="4">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D160" t="s" s="4">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
       <c r="I160" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J160" s="11"/>
       <c r="K160" s="6"/>
@@ -8703,32 +8868,33 @@
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
       <c r="O160" s="6"/>
-      <c r="P160" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q160" s="9"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R160" s="9"/>
       <c r="S160" s="9"/>
+      <c r="T160" s="9"/>
     </row>
     <row r="161" ht="35.65" customHeight="1">
       <c r="A161" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B161" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C161" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D161" t="s" s="4">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
       <c r="I161" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J161" s="11"/>
       <c r="K161" s="6"/>
@@ -8736,32 +8902,33 @@
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
       <c r="O161" s="6"/>
-      <c r="P161" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q161" s="9"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R161" s="9"/>
       <c r="S161" s="9"/>
+      <c r="T161" s="9"/>
     </row>
     <row r="162" ht="35.65" customHeight="1">
       <c r="A162" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B162" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C162" t="s" s="4">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D162" t="s" s="4">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
       <c r="I162" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J162" s="11"/>
       <c r="K162" s="6"/>
@@ -8769,32 +8936,33 @@
       <c r="M162" s="6"/>
       <c r="N162" s="6"/>
       <c r="O162" s="6"/>
-      <c r="P162" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q162" s="9"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R162" s="9"/>
       <c r="S162" s="9"/>
+      <c r="T162" s="9"/>
     </row>
     <row r="163" ht="18.5" customHeight="1">
       <c r="A163" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B163" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C163" t="s" s="4">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D163" t="s" s="4">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
       <c r="I163" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J163" s="11"/>
       <c r="K163" s="6"/>
@@ -8802,32 +8970,33 @@
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
       <c r="O163" s="6"/>
-      <c r="P163" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q163" s="9"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R163" s="9"/>
       <c r="S163" s="9"/>
+      <c r="T163" s="9"/>
     </row>
     <row r="164" ht="18.5" customHeight="1">
       <c r="A164" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B164" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C164" t="s" s="4">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D164" t="s" s="4">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
       <c r="I164" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J164" s="11"/>
       <c r="K164" s="6"/>
@@ -8835,32 +9004,33 @@
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
       <c r="O164" s="6"/>
-      <c r="P164" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q164" s="9"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R164" s="9"/>
       <c r="S164" s="9"/>
+      <c r="T164" s="9"/>
     </row>
     <row r="165" ht="24.65" customHeight="1">
       <c r="A165" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B165" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C165" t="s" s="4">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D165" t="s" s="4">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
       <c r="I165" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J165" s="11"/>
       <c r="K165" s="6"/>
@@ -8868,32 +9038,33 @@
       <c r="M165" s="6"/>
       <c r="N165" s="6"/>
       <c r="O165" s="6"/>
-      <c r="P165" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q165" s="9"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R165" s="9"/>
       <c r="S165" s="9"/>
+      <c r="T165" s="9"/>
     </row>
     <row r="166" ht="24.65" customHeight="1">
       <c r="A166" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B166" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C166" t="s" s="4">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D166" t="s" s="4">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
       <c r="I166" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J166" s="11"/>
       <c r="K166" s="6"/>
@@ -8901,32 +9072,33 @@
       <c r="M166" s="6"/>
       <c r="N166" s="6"/>
       <c r="O166" s="6"/>
-      <c r="P166" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q166" s="9"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R166" s="9"/>
       <c r="S166" s="9"/>
+      <c r="T166" s="9"/>
     </row>
     <row r="167" ht="18.5" customHeight="1">
       <c r="A167" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B167" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C167" t="s" s="4">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D167" t="s" s="4">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
       <c r="I167" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J167" s="11"/>
       <c r="K167" s="6"/>
@@ -8934,32 +9106,33 @@
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
       <c r="O167" s="6"/>
-      <c r="P167" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q167" s="9"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R167" s="9"/>
       <c r="S167" s="9"/>
+      <c r="T167" s="9"/>
     </row>
     <row r="168" ht="35.65" customHeight="1">
       <c r="A168" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B168" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C168" t="s" s="4">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D168" t="s" s="4">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J168" s="11"/>
       <c r="K168" s="6"/>
@@ -8967,32 +9140,33 @@
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
       <c r="O168" s="6"/>
-      <c r="P168" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q168" s="9"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R168" s="9"/>
       <c r="S168" s="9"/>
+      <c r="T168" s="9"/>
     </row>
     <row r="169" ht="46.65" customHeight="1">
       <c r="A169" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B169" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C169" t="s" s="4">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D169" t="s" s="4">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
       <c r="I169" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J169" s="11"/>
       <c r="K169" s="6"/>
@@ -9000,25 +9174,26 @@
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
       <c r="O169" s="6"/>
-      <c r="P169" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q169" s="9"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R169" s="9"/>
       <c r="S169" s="9"/>
+      <c r="T169" s="9"/>
     </row>
     <row r="170" ht="35.65" customHeight="1">
       <c r="A170" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B170" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C170" t="s" s="4">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D170" t="s" s="4">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
@@ -9031,25 +9206,26 @@
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
       <c r="O170" s="6"/>
-      <c r="P170" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q170" s="9"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R170" s="9"/>
       <c r="S170" s="9"/>
+      <c r="T170" s="9"/>
     </row>
     <row r="171" ht="35.65" customHeight="1">
       <c r="A171" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B171" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C171" t="s" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D171" t="s" s="4">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
@@ -9062,25 +9238,26 @@
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
       <c r="O171" s="6"/>
-      <c r="P171" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q171" s="9"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R171" s="9"/>
       <c r="S171" s="9"/>
+      <c r="T171" s="9"/>
     </row>
     <row r="172" ht="35.65" customHeight="1">
       <c r="A172" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B172" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C172" t="s" s="4">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D172" t="s" s="4">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
@@ -9093,25 +9270,26 @@
       <c r="M172" s="6"/>
       <c r="N172" s="6"/>
       <c r="O172" s="6"/>
-      <c r="P172" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q172" s="9"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R172" s="9"/>
       <c r="S172" s="9"/>
+      <c r="T172" s="9"/>
     </row>
     <row r="173" ht="24.65" customHeight="1">
       <c r="A173" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B173" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C173" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D173" t="s" s="4">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
@@ -9124,25 +9302,26 @@
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
       <c r="O173" s="6"/>
-      <c r="P173" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q173" s="9"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R173" s="9"/>
       <c r="S173" s="9"/>
+      <c r="T173" s="9"/>
     </row>
     <row r="174" ht="46.65" customHeight="1">
       <c r="A174" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B174" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C174" t="s" s="4">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D174" t="s" s="4">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
@@ -9155,25 +9334,26 @@
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
       <c r="O174" s="6"/>
-      <c r="P174" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q174" s="9"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R174" s="9"/>
       <c r="S174" s="9"/>
+      <c r="T174" s="9"/>
     </row>
     <row r="175" ht="35.65" customHeight="1">
       <c r="A175" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C175" t="s" s="4">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D175" t="s" s="4">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
@@ -9186,25 +9366,26 @@
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
       <c r="O175" s="6"/>
-      <c r="P175" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q175" s="9"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R175" s="9"/>
       <c r="S175" s="9"/>
+      <c r="T175" s="9"/>
     </row>
     <row r="176" ht="46.65" customHeight="1">
       <c r="A176" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B176" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C176" t="s" s="4">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D176" t="s" s="4">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
@@ -9217,25 +9398,26 @@
       <c r="M176" s="6"/>
       <c r="N176" s="6"/>
       <c r="O176" s="6"/>
-      <c r="P176" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q176" s="9"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R176" s="9"/>
       <c r="S176" s="9"/>
+      <c r="T176" s="9"/>
     </row>
     <row r="177" ht="79.65" customHeight="1">
       <c r="A177" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B177" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C177" t="s" s="4">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D177" t="s" s="4">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
@@ -9248,25 +9430,26 @@
       <c r="M177" s="6"/>
       <c r="N177" s="6"/>
       <c r="O177" s="6"/>
-      <c r="P177" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q177" s="9"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R177" s="9"/>
       <c r="S177" s="9"/>
+      <c r="T177" s="9"/>
     </row>
     <row r="178" ht="46.65" customHeight="1">
       <c r="A178" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B178" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C178" t="s" s="4">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D178" t="s" s="4">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
@@ -9279,25 +9462,26 @@
       <c r="M178" s="6"/>
       <c r="N178" s="6"/>
       <c r="O178" s="6"/>
-      <c r="P178" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q178" s="9"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R178" s="9"/>
       <c r="S178" s="9"/>
+      <c r="T178" s="9"/>
     </row>
     <row r="179" ht="35.65" customHeight="1">
       <c r="A179" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B179" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C179" t="s" s="4">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D179" t="s" s="4">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
@@ -9310,32 +9494,33 @@
       <c r="M179" s="6"/>
       <c r="N179" s="6"/>
       <c r="O179" s="6"/>
-      <c r="P179" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q179" s="9"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R179" s="9"/>
       <c r="S179" s="9"/>
+      <c r="T179" s="9"/>
     </row>
     <row r="180" ht="35.65" customHeight="1">
       <c r="A180" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B180" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C180" t="s" s="4">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D180" t="s" s="4">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
       <c r="I180" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J180" s="11"/>
       <c r="K180" s="6"/>
@@ -9343,25 +9528,26 @@
       <c r="M180" s="6"/>
       <c r="N180" s="6"/>
       <c r="O180" s="6"/>
-      <c r="P180" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q180" s="9"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R180" s="9"/>
       <c r="S180" s="9"/>
+      <c r="T180" s="9"/>
     </row>
     <row r="181" ht="35.65" customHeight="1">
       <c r="A181" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B181" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C181" t="s" s="4">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D181" t="s" s="4">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
@@ -9374,32 +9560,33 @@
       <c r="M181" s="6"/>
       <c r="N181" s="6"/>
       <c r="O181" s="6"/>
-      <c r="P181" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q181" s="9"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R181" s="9"/>
       <c r="S181" s="9"/>
+      <c r="T181" s="9"/>
     </row>
     <row r="182" ht="35.65" customHeight="1">
       <c r="A182" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B182" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C182" t="s" s="4">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D182" t="s" s="4">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
       <c r="I182" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J182" s="11"/>
       <c r="K182" s="6"/>
@@ -9407,32 +9594,33 @@
       <c r="M182" s="6"/>
       <c r="N182" s="6"/>
       <c r="O182" s="6"/>
-      <c r="P182" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q182" s="9"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R182" s="9"/>
       <c r="S182" s="9"/>
+      <c r="T182" s="9"/>
     </row>
     <row r="183" ht="46.65" customHeight="1">
       <c r="A183" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B183" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C183" t="s" s="4">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D183" t="s" s="4">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
       <c r="I183" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J183" s="11"/>
       <c r="K183" s="6"/>
@@ -9440,32 +9628,33 @@
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
       <c r="O183" s="6"/>
-      <c r="P183" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q183" s="9"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R183" s="9"/>
       <c r="S183" s="9"/>
+      <c r="T183" s="9"/>
     </row>
     <row r="184" ht="24.65" customHeight="1">
       <c r="A184" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B184" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C184" t="s" s="4">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D184" t="s" s="4">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
       <c r="I184" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J184" s="11"/>
       <c r="K184" s="6"/>
@@ -9473,32 +9662,33 @@
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
       <c r="O184" s="6"/>
-      <c r="P184" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q184" s="9"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R184" s="9"/>
       <c r="S184" s="9"/>
+      <c r="T184" s="9"/>
     </row>
     <row r="185" ht="57.65" customHeight="1">
       <c r="A185" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B185" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C185" t="s" s="4">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D185" t="s" s="4">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
       <c r="I185" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J185" s="11"/>
       <c r="K185" s="6"/>
@@ -9506,32 +9696,33 @@
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
       <c r="O185" s="6"/>
-      <c r="P185" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q185" s="9"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R185" s="9"/>
       <c r="S185" s="9"/>
+      <c r="T185" s="9"/>
     </row>
     <row r="186" ht="57.65" customHeight="1">
       <c r="A186" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B186" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C186" t="s" s="4">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D186" t="s" s="4">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
       <c r="I186" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J186" s="11"/>
       <c r="K186" s="6"/>
@@ -9539,32 +9730,33 @@
       <c r="M186" s="6"/>
       <c r="N186" s="6"/>
       <c r="O186" s="6"/>
-      <c r="P186" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q186" s="9"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R186" s="9"/>
       <c r="S186" s="9"/>
+      <c r="T186" s="9"/>
     </row>
     <row r="187" ht="24.65" customHeight="1">
       <c r="A187" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B187" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C187" t="s" s="4">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D187" t="s" s="4">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
       <c r="I187" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J187" s="11"/>
       <c r="K187" s="6"/>
@@ -9572,32 +9764,33 @@
       <c r="M187" s="6"/>
       <c r="N187" s="6"/>
       <c r="O187" s="6"/>
-      <c r="P187" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q187" s="9"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R187" s="9"/>
       <c r="S187" s="9"/>
+      <c r="T187" s="9"/>
     </row>
     <row r="188" ht="24.65" customHeight="1">
       <c r="A188" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B188" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C188" t="s" s="4">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D188" t="s" s="4">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
       <c r="I188" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J188" s="11"/>
       <c r="K188" s="6"/>
@@ -9605,32 +9798,33 @@
       <c r="M188" s="6"/>
       <c r="N188" s="6"/>
       <c r="O188" s="6"/>
-      <c r="P188" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q188" s="9"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R188" s="9"/>
       <c r="S188" s="9"/>
+      <c r="T188" s="9"/>
     </row>
     <row r="189" ht="35.65" customHeight="1">
       <c r="A189" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B189" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C189" t="s" s="4">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D189" t="s" s="4">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
       <c r="I189" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J189" s="11"/>
       <c r="K189" s="6"/>
@@ -9638,25 +9832,26 @@
       <c r="M189" s="6"/>
       <c r="N189" s="6"/>
       <c r="O189" s="6"/>
-      <c r="P189" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q189" s="9"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R189" s="9"/>
       <c r="S189" s="9"/>
+      <c r="T189" s="9"/>
     </row>
     <row r="190" ht="24.65" customHeight="1">
       <c r="A190" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B190" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C190" t="s" s="4">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D190" t="s" s="4">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
@@ -9669,25 +9864,26 @@
       <c r="M190" s="6"/>
       <c r="N190" s="6"/>
       <c r="O190" s="6"/>
-      <c r="P190" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q190" s="9"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R190" s="9"/>
       <c r="S190" s="9"/>
+      <c r="T190" s="9"/>
     </row>
     <row r="191" ht="35.65" customHeight="1">
       <c r="A191" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B191" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C191" t="s" s="4">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D191" t="s" s="4">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
@@ -9700,56 +9896,58 @@
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
       <c r="O191" s="6"/>
-      <c r="P191" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q191" s="9"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" t="s" s="7">
+        <v>25</v>
+      </c>
       <c r="R191" s="9"/>
       <c r="S191" s="9"/>
+      <c r="T191" s="9"/>
     </row>
     <row r="192" ht="167.65" customHeight="1">
       <c r="A192" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B192" t="s" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C192" t="s" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D192" t="s" s="4">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
       <c r="G192" t="s" s="12">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H192" s="13"/>
       <c r="I192" s="13"/>
       <c r="J192" s="13"/>
       <c r="K192" s="13"/>
       <c r="L192" s="14"/>
-      <c r="M192" s="14"/>
-      <c r="N192" s="13"/>
-      <c r="O192" s="14"/>
-      <c r="P192" s="15"/>
-      <c r="Q192" s="9"/>
+      <c r="M192" s="13"/>
+      <c r="N192" s="14"/>
+      <c r="O192" s="13"/>
+      <c r="P192" s="14"/>
+      <c r="Q192" s="15"/>
       <c r="R192" s="9"/>
       <c r="S192" s="9"/>
+      <c r="T192" s="9"/>
     </row>
     <row r="193" ht="101.65" customHeight="1">
       <c r="A193" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B193" t="s" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C193" t="s" s="4">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D193" t="s" s="4">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
@@ -9759,26 +9957,27 @@
       <c r="J193" s="18"/>
       <c r="K193" s="17"/>
       <c r="L193" s="17"/>
-      <c r="M193" s="17"/>
-      <c r="N193" s="18"/>
-      <c r="O193" s="17"/>
-      <c r="P193" s="19"/>
-      <c r="Q193" s="9"/>
+      <c r="M193" s="18"/>
+      <c r="N193" s="17"/>
+      <c r="O193" s="18"/>
+      <c r="P193" s="17"/>
+      <c r="Q193" s="19"/>
       <c r="R193" s="9"/>
       <c r="S193" s="9"/>
+      <c r="T193" s="9"/>
     </row>
     <row r="194" ht="156.65" customHeight="1">
       <c r="A194" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B194" t="s" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C194" t="s" s="4">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D194" t="s" s="4">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
@@ -9788,26 +9987,27 @@
       <c r="J194" s="18"/>
       <c r="K194" s="17"/>
       <c r="L194" s="17"/>
-      <c r="M194" s="17"/>
-      <c r="N194" s="18"/>
-      <c r="O194" s="17"/>
-      <c r="P194" s="19"/>
-      <c r="Q194" s="9"/>
+      <c r="M194" s="18"/>
+      <c r="N194" s="17"/>
+      <c r="O194" s="18"/>
+      <c r="P194" s="17"/>
+      <c r="Q194" s="19"/>
       <c r="R194" s="9"/>
       <c r="S194" s="9"/>
+      <c r="T194" s="9"/>
     </row>
     <row r="195" ht="134.65" customHeight="1">
       <c r="A195" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B195" t="s" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C195" t="s" s="4">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D195" t="s" s="4">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
@@ -9817,26 +10017,27 @@
       <c r="J195" s="18"/>
       <c r="K195" s="17"/>
       <c r="L195" s="17"/>
-      <c r="M195" s="17"/>
-      <c r="N195" s="18"/>
-      <c r="O195" s="17"/>
-      <c r="P195" s="19"/>
-      <c r="Q195" s="9"/>
+      <c r="M195" s="18"/>
+      <c r="N195" s="17"/>
+      <c r="O195" s="18"/>
+      <c r="P195" s="17"/>
+      <c r="Q195" s="19"/>
       <c r="R195" s="9"/>
       <c r="S195" s="9"/>
+      <c r="T195" s="9"/>
     </row>
     <row r="196" ht="156.65" customHeight="1">
       <c r="A196" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B196" t="s" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C196" t="s" s="4">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D196" t="s" s="4">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
@@ -9846,26 +10047,27 @@
       <c r="J196" s="18"/>
       <c r="K196" s="17"/>
       <c r="L196" s="17"/>
-      <c r="M196" s="17"/>
-      <c r="N196" s="18"/>
-      <c r="O196" s="17"/>
-      <c r="P196" s="19"/>
-      <c r="Q196" s="9"/>
+      <c r="M196" s="18"/>
+      <c r="N196" s="17"/>
+      <c r="O196" s="18"/>
+      <c r="P196" s="17"/>
+      <c r="Q196" s="19"/>
       <c r="R196" s="9"/>
       <c r="S196" s="9"/>
+      <c r="T196" s="9"/>
     </row>
     <row r="197" ht="90.65" customHeight="1">
       <c r="A197" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B197" t="s" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C197" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D197" t="s" s="4">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
@@ -9875,26 +10077,27 @@
       <c r="J197" s="18"/>
       <c r="K197" s="17"/>
       <c r="L197" s="17"/>
-      <c r="M197" s="17"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="17"/>
-      <c r="P197" s="19"/>
-      <c r="Q197" s="9"/>
+      <c r="M197" s="18"/>
+      <c r="N197" s="17"/>
+      <c r="O197" s="18"/>
+      <c r="P197" s="17"/>
+      <c r="Q197" s="19"/>
       <c r="R197" s="9"/>
       <c r="S197" s="9"/>
+      <c r="T197" s="9"/>
     </row>
     <row r="198" ht="123.65" customHeight="1">
       <c r="A198" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B198" t="s" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C198" t="s" s="4">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D198" t="s" s="4">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
@@ -9904,26 +10107,27 @@
       <c r="J198" s="18"/>
       <c r="K198" s="17"/>
       <c r="L198" s="17"/>
-      <c r="M198" s="17"/>
-      <c r="N198" s="18"/>
-      <c r="O198" s="17"/>
-      <c r="P198" s="19"/>
-      <c r="Q198" s="9"/>
+      <c r="M198" s="18"/>
+      <c r="N198" s="17"/>
+      <c r="O198" s="18"/>
+      <c r="P198" s="17"/>
+      <c r="Q198" s="19"/>
       <c r="R198" s="9"/>
       <c r="S198" s="9"/>
+      <c r="T198" s="9"/>
     </row>
     <row r="199" ht="112.65" customHeight="1">
       <c r="A199" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B199" t="s" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C199" t="s" s="4">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D199" t="s" s="4">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
@@ -9933,17 +10137,18 @@
       <c r="J199" s="22"/>
       <c r="K199" s="21"/>
       <c r="L199" s="21"/>
-      <c r="M199" s="21"/>
-      <c r="N199" s="22"/>
-      <c r="O199" s="21"/>
-      <c r="P199" s="23"/>
-      <c r="Q199" s="9"/>
+      <c r="M199" s="22"/>
+      <c r="N199" s="21"/>
+      <c r="O199" s="22"/>
+      <c r="P199" s="21"/>
+      <c r="Q199" s="23"/>
       <c r="R199" s="9"/>
       <c r="S199" s="9"/>
+      <c r="T199" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G192:P199"/>
+    <mergeCell ref="G192:Q199"/>
   </mergeCells>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
